--- a/Scheme/BPF.xlsx
+++ b/Scheme/BPF.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>External0</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Там где указана единица - подключается ULN с открытым коллектором (сигнал просаживается в ноль)</t>
+  </si>
+  <si>
+    <t>Выход</t>
+  </si>
+  <si>
+    <t>Если инверсия входов</t>
   </si>
 </sst>
 </file>
@@ -430,18 +436,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F19"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -457,8 +462,14 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -474,8 +485,15 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <f>17-G2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -491,8 +509,15 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H17" si="0">17-G3</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -508,8 +533,15 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -525,8 +557,15 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -542,8 +581,15 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -559,8 +605,15 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -576,8 +629,15 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -593,8 +653,15 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -610,8 +677,15 @@
       <c r="F10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -627,8 +701,15 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -644,8 +725,15 @@
       <c r="F12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -661,8 +749,15 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -678,8 +773,15 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -695,8 +797,15 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -712,8 +821,15 @@
       <c r="F16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -729,8 +845,15 @@
       <c r="F17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
